--- a/SourceDataTables/FigS10.xlsx
+++ b/SourceDataTables/FigS10.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="38">
   <si>
     <t>Thalamic_ROI</t>
   </si>
@@ -147,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -157,14 +157,38 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,18 +207,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -205,7 +229,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -216,7 +240,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -227,7 +251,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -238,7 +262,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -249,7 +273,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -260,7 +284,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -271,7 +295,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -282,7 +306,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -293,7 +317,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -304,7 +328,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -315,7 +339,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -326,7 +350,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -337,7 +361,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -348,7 +372,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -359,7 +383,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -370,7 +394,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -381,7 +405,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -392,7 +416,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -403,7 +427,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -414,7 +438,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -425,7 +449,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -436,7 +460,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -447,7 +471,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -458,7 +482,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -469,7 +493,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -480,7 +504,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -491,7 +515,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -502,7 +526,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -513,7 +537,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -524,7 +548,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -535,7 +559,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -546,7 +570,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -557,7 +581,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -568,7 +592,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B36">

--- a/SourceDataTables/FigS10.xlsx
+++ b/SourceDataTables/FigS10.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="38">
   <si>
     <t>Thalamic_ROI</t>
   </si>
@@ -147,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -169,11 +169,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -189,6 +191,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,18 +211,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -229,7 +233,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -240,7 +244,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -251,7 +255,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -262,7 +266,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -273,7 +277,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -284,7 +288,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -295,7 +299,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -306,7 +310,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -317,7 +321,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -328,7 +332,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -339,7 +343,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -350,7 +354,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -361,7 +365,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -372,7 +376,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -383,7 +387,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -394,7 +398,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -405,7 +409,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -416,7 +420,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -427,7 +431,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -438,7 +442,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -449,7 +453,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -460,7 +464,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -471,7 +475,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -482,7 +486,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -493,7 +497,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -504,7 +508,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -515,7 +519,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -526,7 +530,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -537,7 +541,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -548,7 +552,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -559,7 +563,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -570,7 +574,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -581,7 +585,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -592,7 +596,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B36">

--- a/SourceDataTables/FigS10.xlsx
+++ b/SourceDataTables/FigS10.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Thalamic_ROI</t>
   </si>
@@ -147,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,42 +157,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,18 +183,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -233,7 +205,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -244,7 +216,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -255,7 +227,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -266,7 +238,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -277,7 +249,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -288,7 +260,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -299,7 +271,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -310,7 +282,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -321,7 +293,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -332,7 +304,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -343,7 +315,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -354,7 +326,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -365,7 +337,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -376,7 +348,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -387,7 +359,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -398,7 +370,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -409,7 +381,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -420,7 +392,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -431,7 +403,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -442,7 +414,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -453,7 +425,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -464,7 +436,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -475,7 +447,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -486,7 +458,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -497,7 +469,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -508,7 +480,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -519,7 +491,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -530,7 +502,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -541,7 +513,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -552,7 +524,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -563,7 +535,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -574,7 +546,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -585,7 +557,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -596,7 +568,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
